--- a/Data/Bảng phân công.xlsx
+++ b/Data/Bảng phân công.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Downloads\DoAn_CNPM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Downloads\DoAn_CNPM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3536CCF-8A20-4721-A1CB-AF3AB54B870A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7C6FAE-85B7-4B22-AFA1-D342341F679C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E69B2DEE-E1CA-4FD0-8210-BD6F21586AE0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bảng Phân Công" sheetId="1" r:id="rId1"/>
+    <sheet name="Api" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>STT</t>
   </si>
@@ -114,9 +115,6 @@
     <t>Xác định lớp người dùng</t>
   </si>
   <si>
-    <t>Giao Việc</t>
-  </si>
-  <si>
     <t>Ngô Ngọc Tiến</t>
   </si>
   <si>
@@ -151,6 +149,12 @@
   </si>
   <si>
     <t>Hoàn Thành</t>
+  </si>
+  <si>
+    <t>Đang Thực Hiện</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tạo các branch làm việc </t>
   </si>
 </sst>
 </file>
@@ -352,14 +356,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -486,12 +490,12 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$5</c:f>
+              <c:f>'Bảng Phân Công'!$L$5</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.44444444444444442</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1304,7 +1308,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>44%</a:t>
+            <a:t>90%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1100" b="1">
             <a:solidFill>
@@ -1619,7 +1623,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,11 +1642,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
@@ -1653,9 +1657,9 @@
       <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
       <c r="I2" s="9"/>
       <c r="J2" s="5"/>
       <c r="K2" s="3"/>
@@ -1667,10 +1671,10 @@
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1685,8 +1689,8 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>19</v>
+      <c r="A5" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -1703,20 +1707,20 @@
         <v>45023</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7">
         <f>COUNTIFS(J:J,"Hoàn Thành")/(COUNTA(J:J)-2)</f>
-        <v>0.44444444444444442</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
+      <c r="A6" s="16"/>
       <c r="D6" s="4">
         <v>2</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="4" t="s">
@@ -1727,7 +1731,7 @@
         <v>45021</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1739,14 +1743,14 @@
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="11">
         <v>45023</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1754,18 +1758,18 @@
         <v>4</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="11">
         <v>45023</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1773,7 +1777,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="4" t="s">
@@ -1784,18 +1788,18 @@
         <v>45020</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>20</v>
+      <c r="A10" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="D10" s="4">
         <v>6</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="4" t="s">
@@ -1806,16 +1810,16 @@
         <v>45028</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
+      <c r="A11" s="16"/>
       <c r="D11" s="4">
         <v>7</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="4" t="s">
@@ -1826,7 +1830,7 @@
         <v>45028</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1834,18 +1838,18 @@
         <v>8</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="11">
         <v>45028</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1853,18 +1857,18 @@
         <v>9</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="11">
         <v>45028</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1883,19 +1887,23 @@
         <v>45028</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="4">
         <v>11</v>
       </c>
-      <c r="E15" s="14"/>
+      <c r="E15" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="F15" s="15"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="4"/>
+      <c r="J15" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="4">
@@ -1963,11 +1971,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="F1:H2"/>
@@ -1983,6 +1986,11 @@
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:J20">
     <cfRule type="expression" dxfId="5" priority="1">
@@ -2018,6 +2026,20 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336116C0-F5CE-463D-B4E0-2F45B77B8649}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2028,12 +2050,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006012939AEB6C7441B93DD0678AEC47A1" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d9cd836056523acb4db17a702a1b7bc1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f954ad4b6ebd46506388e2a5c869540">
     <xsd:element name="properties">
@@ -2147,6 +2163,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B520BE18-ED60-4FF6-B0FA-E5214074705A}">
   <ds:schemaRefs>
@@ -2156,21 +2178,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D590136-27C3-4A17-801C-DA4E11D5F8CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B5A57AA-6876-431A-A529-700D213A014C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2184,4 +2191,19 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D590136-27C3-4A17-801C-DA4E11D5F8CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Data/Bảng phân công.xlsx
+++ b/Data/Bảng phân công.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Downloads\DoAn_CNPM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7C6FAE-85B7-4B22-AFA1-D342341F679C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4D966A-A566-4683-A330-2FAE16D08B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E69B2DEE-E1CA-4FD0-8210-BD6F21586AE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{E69B2DEE-E1CA-4FD0-8210-BD6F21586AE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng Phân Công" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>STT</t>
   </si>
@@ -155,6 +155,75 @@
   </si>
   <si>
     <t xml:space="preserve">Tạo các branch làm việc </t>
+  </si>
+  <si>
+    <t>Bảng api</t>
+  </si>
+  <si>
+    <t>Stt</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>Tên API</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>Aut Sign Up</t>
+  </si>
+  <si>
+    <t>/api/v1/auth/signup</t>
+  </si>
+  <si>
+    <t>Aut Sign In</t>
+  </si>
+  <si>
+    <t>/api/v1/auth/signin</t>
+  </si>
+  <si>
+    <t>Aut  refesh token</t>
+  </si>
+  <si>
+    <t>/api/v1/auth/refresh</t>
+  </si>
+  <si>
+    <t>User Update</t>
+  </si>
+  <si>
+    <t>/api/v1/users</t>
+  </si>
+  <si>
+    <t>User Upload Avatar</t>
+  </si>
+  <si>
+    <t>/api/v1/upload/user/avatar?folder=user</t>
+  </si>
+  <si>
+    <t>/api/v1/stores</t>
+  </si>
+  <si>
+    <t>Store Create</t>
+  </si>
+  <si>
+    <t>Stroe Delete</t>
+  </si>
+  <si>
+    <t>/api/v1/stores/khobinhthanh</t>
+  </si>
+  <si>
+    <t>DELETE</t>
   </si>
 </sst>
 </file>
@@ -164,7 +233,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +308,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -319,7 +394,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -356,21 +431,193 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1256,7 +1503,7 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="359009" cy="264560"/>
+    <xdr:ext cx="430502" cy="264560"/>
     <xdr:sp macro="" textlink="$L$5">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="TextBox 3">
@@ -1271,7 +1518,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8515350" y="228600"/>
-          <a:ext cx="359009" cy="264560"/>
+          <a:ext cx="430502" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1321,6 +1568,20 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27A8D894-E393-4B87-B3E2-28ABE168B418}" name="Table1" displayName="Table1" ref="B3:F10" totalsRowShown="0" headerRowDxfId="27" dataDxfId="21">
+  <autoFilter ref="B3:F10" xr:uid="{27A8D894-E393-4B87-B3E2-28ABE168B418}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{B86DE6CB-0C76-4F5D-BD27-5184A77E75D2}" name="Stt" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{5C6E88B1-9334-49D3-BEC9-F1E9642210BA}" name="Tên API" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{57B8767F-0FEF-49E0-B89B-9E2FE7EB2BA9}" name="Url" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{54223990-E65D-4379-8DEA-CB0D0F2F2D2E}" name="Method" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{479553B4-FFD2-435A-9CF4-00514AF86902}" name="Trạng thái" dataDxfId="22"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1622,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6BB0DD-27AD-4C70-9142-B6280C5DD842}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,11 +1903,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
       <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
@@ -1657,9 +1918,9 @@
       <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
       <c r="I2" s="9"/>
       <c r="J2" s="5"/>
       <c r="K2" s="3"/>
@@ -1671,10 +1932,10 @@
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1689,7 +1950,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="18" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="4">
@@ -1715,7 +1976,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
+      <c r="A6" s="18"/>
       <c r="D6" s="4">
         <v>2</v>
       </c>
@@ -1792,7 +2053,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="18" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="4">
@@ -1814,7 +2075,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
+      <c r="A11" s="18"/>
       <c r="D11" s="4">
         <v>7</v>
       </c>
@@ -1900,7 +2161,9 @@
       <c r="F15" s="15"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="11"/>
+      <c r="I15" s="11">
+        <v>45029</v>
+      </c>
       <c r="J15" s="4" t="s">
         <v>26</v>
       </c>
@@ -1971,6 +2234,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="F1:H2"/>
@@ -1987,30 +2254,26 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:J20">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="33" priority="1">
       <formula>$J5="Hoàn Thành"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>$J5="Đang Thực Hiện"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="31" priority="4">
       <formula>$J5="Chưa Hoàn Thành"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="30" priority="5">
       <formula>$J5="Hoàn Thành"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="6">
+    <cfRule type="expression" dxfId="29" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:J21">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="28" priority="3">
       <formula>$J5="Đang Thực Hiện"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2028,15 +2291,183 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336116C0-F5CE-463D-B4E0-2F45B77B8649}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="8" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="19">
+        <v>1</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="19">
+        <v>2</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="19">
+        <v>3</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="19">
+        <v>4</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="19">
+        <v>5</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="19">
+        <v>6</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="19">
+        <v>7</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E4:E10">
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>$E4="POST"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>$E4="GET"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="4">
+      <formula>$E4="PUT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="3">
+      <formula>$E4="POST"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="2">
+      <formula>$E4="DELETE"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>$E4="GET"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E10" xr:uid="{12B88800-249F-4446-BFB3-80C92A3A73F9}">
+      <formula1>"GET,POST,PUT,DELETE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2050,6 +2481,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006012939AEB6C7441B93DD0678AEC47A1" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d9cd836056523acb4db17a702a1b7bc1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f954ad4b6ebd46506388e2a5c869540">
     <xsd:element name="properties">
@@ -2163,12 +2600,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B520BE18-ED60-4FF6-B0FA-E5214074705A}">
   <ds:schemaRefs>
@@ -2178,6 +2609,21 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D590136-27C3-4A17-801C-DA4E11D5F8CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B5A57AA-6876-431A-A529-700D213A014C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2191,19 +2637,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D590136-27C3-4A17-801C-DA4E11D5F8CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Data/Bảng phân công.xlsx
+++ b/Data/Bảng phân công.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Downloads\DoAn_CNPM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4D966A-A566-4683-A330-2FAE16D08B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5D122A-9773-4ECE-8C08-8E64CB1465BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{E69B2DEE-E1CA-4FD0-8210-BD6F21586AE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E69B2DEE-E1CA-4FD0-8210-BD6F21586AE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng Phân Công" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="69">
   <si>
     <t>STT</t>
   </si>
@@ -142,9 +142,6 @@
     <t>Cập nhật tài liệu SRS</t>
   </si>
   <si>
-    <t>Xây dựng giao diện đăng ký, đăng nhập, trang chủ</t>
-  </si>
-  <si>
     <t>Tìm hiểu về quản lý kho hàng</t>
   </si>
   <si>
@@ -181,21 +178,12 @@
     <t>PUT</t>
   </si>
   <si>
-    <t>Aut Sign Up</t>
-  </si>
-  <si>
     <t>/api/v1/auth/signup</t>
   </si>
   <si>
-    <t>Aut Sign In</t>
-  </si>
-  <si>
     <t>/api/v1/auth/signin</t>
   </si>
   <si>
-    <t>Aut  refesh token</t>
-  </si>
-  <si>
     <t>/api/v1/auth/refresh</t>
   </si>
   <si>
@@ -217,13 +205,79 @@
     <t>Store Create</t>
   </si>
   <si>
-    <t>Stroe Delete</t>
-  </si>
-  <si>
     <t>/api/v1/stores/khobinhthanh</t>
   </si>
   <si>
     <t>DELETE</t>
+  </si>
+  <si>
+    <t>Strore Delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Strore Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Strore Destroy</t>
+  </si>
+  <si>
+    <t>/api/v1/stores/khobinhthanh/destroy</t>
+  </si>
+  <si>
+    <t>Store Search Delete</t>
+  </si>
+  <si>
+    <t>/api/v1/stores/search/deleted</t>
+  </si>
+  <si>
+    <t>Store Import Excel</t>
+  </si>
+  <si>
+    <t>Auth Sign Up</t>
+  </si>
+  <si>
+    <t>Auth Sign In</t>
+  </si>
+  <si>
+    <t>Auth  refesh token</t>
+  </si>
+  <si>
+    <t>/api/v1/stores/export-excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strore Export </t>
+  </si>
+  <si>
+    <t>/api/v1/stores/import-excel</t>
+  </si>
+  <si>
+    <t>Store Update</t>
+  </si>
+  <si>
+    <t>Tuần 4</t>
+  </si>
+  <si>
+    <t>Xây dựng giao diện đăng ký, đăng nhập</t>
+  </si>
+  <si>
+    <t>Giao Việc</t>
+  </si>
+  <si>
+    <t>Xây dựng trang chủ</t>
+  </si>
+  <si>
+    <t>Trang danh sách các danh mục, danh mục</t>
+  </si>
+  <si>
+    <t>Trang phân quyền người dùng(admin)</t>
+  </si>
+  <si>
+    <t>Trang báo cáo danh thu, nhập xuất kho</t>
+  </si>
+  <si>
+    <t>Trang màn hình Pos</t>
+  </si>
+  <si>
+    <t>21/04/2023</t>
   </si>
 </sst>
 </file>
@@ -394,7 +448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -425,6 +479,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -437,19 +498,28 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="37">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -496,7 +566,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -524,6 +594,38 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -556,6 +658,30 @@
       </font>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -575,48 +701,6 @@
         <i val="0"/>
         <color theme="9" tint="-0.24994659260841701"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -742,7 +826,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.9</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1503,7 +1587,7 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="430502" cy="264560"/>
+    <xdr:ext cx="501997" cy="264560"/>
     <xdr:sp macro="" textlink="$L$5">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="TextBox 3">
@@ -1518,7 +1602,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8515350" y="228600"/>
-          <a:ext cx="430502" cy="264560"/>
+          <a:ext cx="501997" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1555,7 +1639,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>90%</a:t>
+            <a:t>67%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1100" b="1">
             <a:solidFill>
@@ -1571,14 +1655,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27A8D894-E393-4B87-B3E2-28ABE168B418}" name="Table1" displayName="Table1" ref="B3:F10" totalsRowShown="0" headerRowDxfId="27" dataDxfId="21">
-  <autoFilter ref="B3:F10" xr:uid="{27A8D894-E393-4B87-B3E2-28ABE168B418}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27A8D894-E393-4B87-B3E2-28ABE168B418}" name="Table1" displayName="Table1" ref="B3:F17" totalsRowShown="0" headerRowDxfId="24" dataDxfId="17">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B86DE6CB-0C76-4F5D-BD27-5184A77E75D2}" name="Stt" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{5C6E88B1-9334-49D3-BEC9-F1E9642210BA}" name="Tên API" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{57B8767F-0FEF-49E0-B89B-9E2FE7EB2BA9}" name="Url" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{54223990-E65D-4379-8DEA-CB0D0F2F2D2E}" name="Method" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{479553B4-FFD2-435A-9CF4-00514AF86902}" name="Trạng thái" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{B86DE6CB-0C76-4F5D-BD27-5184A77E75D2}" name="Stt" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{5C6E88B1-9334-49D3-BEC9-F1E9642210BA}" name="Tên API" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{57B8767F-0FEF-49E0-B89B-9E2FE7EB2BA9}" name="Url" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{54223990-E65D-4379-8DEA-CB0D0F2F2D2E}" name="Method" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{479553B4-FFD2-435A-9CF4-00514AF86902}" name="Trạng thái" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1883,8 +1966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6BB0DD-27AD-4C70-9142-B6280C5DD842}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1903,11 +1986,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
       <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
@@ -1918,9 +2001,9 @@
       <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="9"/>
       <c r="J2" s="5"/>
       <c r="K2" s="3"/>
@@ -1932,10 +2015,10 @@
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1950,16 +2033,16 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1968,22 +2051,22 @@
         <v>45023</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L5" s="7">
         <f>COUNTIFS(J:J,"Hoàn Thành")/(COUNTA(J:J)-2)</f>
-        <v>0.9</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
+      <c r="A6" s="16"/>
       <c r="D6" s="4">
         <v>2</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="15"/>
+      <c r="E6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="18"/>
       <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1992,17 +2075,17 @@
         <v>45021</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="4">
         <v>3</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="18"/>
       <c r="G7" s="4" t="s">
         <v>14</v>
       </c>
@@ -2011,17 +2094,17 @@
         <v>45023</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="4">
         <v>4</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="4" t="s">
         <v>16</v>
       </c>
@@ -2030,17 +2113,17 @@
         <v>45023</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="4">
         <v>5</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="4" t="s">
         <v>9</v>
       </c>
@@ -2049,20 +2132,20 @@
         <v>45020</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="4">
         <v>6</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="15"/>
+      <c r="E10" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="18"/>
       <c r="G10" s="4" t="s">
         <v>9</v>
       </c>
@@ -2071,18 +2154,18 @@
         <v>45028</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
+      <c r="A11" s="16"/>
       <c r="D11" s="4">
         <v>7</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="4" t="s">
         <v>7</v>
       </c>
@@ -2091,17 +2174,17 @@
         <v>45028</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="4">
         <v>8</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="15"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="4" t="s">
         <v>16</v>
       </c>
@@ -2110,17 +2193,17 @@
         <v>45028</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="4">
         <v>9</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="15"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="4" t="s">
         <v>14</v>
       </c>
@@ -2129,17 +2212,17 @@
         <v>45028</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="4">
         <v>10</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="15"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="4" t="s">
         <v>12</v>
       </c>
@@ -2148,80 +2231,123 @@
         <v>45028</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="4">
         <v>11</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="15"/>
+      <c r="E15" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="18"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="11">
         <v>45029</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="D16" s="4">
         <v>12</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="4"/>
+      <c r="E16" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="H16" s="4"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="4"/>
+      <c r="I16" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="17" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="4">
         <v>13</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="4"/>
+      <c r="E17" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H17" s="4"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="4"/>
+      <c r="I17" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="18" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="4">
         <v>14</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="4"/>
+      <c r="E18" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="H18" s="4"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="4"/>
+      <c r="I18" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="19" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D19" s="4">
         <v>15</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="4"/>
+      <c r="E19" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H19" s="4"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="4"/>
+      <c r="I19" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="20" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D20" s="4">
         <v>16</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="4"/>
+      <c r="E20" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="H20" s="4"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="4"/>
+      <c r="I20" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
@@ -2234,16 +2360,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="F1:H2"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="F1:H2"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
@@ -2256,24 +2382,24 @@
     <mergeCell ref="E17:F17"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:J20">
-    <cfRule type="expression" dxfId="33" priority="1">
+    <cfRule type="expression" dxfId="36" priority="1">
       <formula>$J5="Hoàn Thành"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="2">
+    <cfRule type="expression" dxfId="35" priority="2">
       <formula>$J5="Đang Thực Hiện"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="4">
+    <cfRule type="expression" dxfId="34" priority="4">
       <formula>$J5="Chưa Hoàn Thành"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="5">
+    <cfRule type="expression" dxfId="33" priority="5">
       <formula>$J5="Hoàn Thành"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="6">
+    <cfRule type="expression" dxfId="32" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:J21">
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" dxfId="31" priority="3">
       <formula>$J5="Đang Thực Hiện"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2291,15 +2417,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336116C0-F5CE-463D-B4E0-2F45B77B8649}">
-  <dimension ref="B2:H12"/>
+  <dimension ref="B2:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="2" max="2" width="11" style="14" customWidth="1"/>
     <col min="3" max="3" width="35.42578125" customWidth="1"/>
     <col min="4" max="4" width="37.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
@@ -2308,158 +2434,261 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="C3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="E3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="14">
+        <v>1</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="19">
-        <v>1</v>
-      </c>
-      <c r="C4" s="19" t="s">
+      <c r="F4" s="22"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="14">
+        <v>2</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="E5" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="14">
+        <v>3</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E6" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="14">
+        <v>4</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="19"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="19">
-        <v>2</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="19">
-        <v>3</v>
-      </c>
-      <c r="C6" s="19" t="s">
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="14">
+        <v>5</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D8" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="19">
-        <v>4</v>
-      </c>
-      <c r="C7" s="19" t="s">
+      <c r="E8" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="14">
+        <v>6</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="19">
-        <v>5</v>
-      </c>
-      <c r="C8" s="19" t="s">
+      <c r="E9" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="14">
+        <v>7</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="E10" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="19">
-        <v>6</v>
-      </c>
-      <c r="C9" s="19" t="s">
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="14">
+        <v>8</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="19">
-        <v>7</v>
-      </c>
-      <c r="C10" s="19" t="s">
+      <c r="D11" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="14">
+        <v>9</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D12" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E12" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="14">
+        <v>10</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H12" s="1"/>
+      <c r="D13" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="14">
+        <v>11</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="14">
+        <v>12</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="14">
+        <v>13</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="14">
+        <v>14</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="22"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E4:E10">
-    <cfRule type="expression" dxfId="6" priority="6">
+  <conditionalFormatting sqref="E4:E17">
+    <cfRule type="expression" dxfId="30" priority="6">
       <formula>$E4="POST"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="29" priority="5">
       <formula>$E4="GET"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="28" priority="4">
       <formula>$E4="PUT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>$E4="POST"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="26" priority="2">
       <formula>$E4="DELETE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="25" priority="1">
       <formula>$E4="GET"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E10" xr:uid="{12B88800-249F-4446-BFB3-80C92A3A73F9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E17" xr:uid="{12B88800-249F-4446-BFB3-80C92A3A73F9}">
       <formula1>"GET,POST,PUT,DELETE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2472,18 +2701,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2601,14 +2830,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B520BE18-ED60-4FF6-B0FA-E5214074705A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D590136-27C3-4A17-801C-DA4E11D5F8CE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -2619,6 +2840,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B520BE18-ED60-4FF6-B0FA-E5214074705A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data/Bảng phân công.xlsx
+++ b/Data/Bảng phân công.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Downloads\DoAn_CNPM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E406CED9-4EAD-4170-AF6C-E58D5A1A2D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8106CC-D6A5-4B00-9B7C-57FBA3D43DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E69B2DEE-E1CA-4FD0-8210-BD6F21586AE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{E69B2DEE-E1CA-4FD0-8210-BD6F21586AE0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Móc 1" sheetId="3" r:id="rId1"/>
-    <sheet name="Api" sheetId="2" r:id="rId2"/>
+    <sheet name="Api" sheetId="2" r:id="rId1"/>
+    <sheet name="Móc 1" sheetId="3" r:id="rId2"/>
+    <sheet name="Móc 2" sheetId="10" r:id="rId3"/>
+    <sheet name="Móc 3" sheetId="11" r:id="rId4"/>
+    <sheet name="Móc 4" sheetId="12" r:id="rId5"/>
+    <sheet name="Móc 5" sheetId="13" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="83">
   <si>
     <t>STT</t>
   </si>
@@ -63,9 +67,6 @@
     <t>Hoàn Thành</t>
   </si>
   <si>
-    <t>Bảng api</t>
-  </si>
-  <si>
     <t>Stt</t>
   </si>
   <si>
@@ -207,9 +208,6 @@
     <t>Backend: Api đăng ký</t>
   </si>
   <si>
-    <t xml:space="preserve">Backend: Api user </t>
-  </si>
-  <si>
     <t>Backend: Api tạo kho</t>
   </si>
   <si>
@@ -235,6 +233,63 @@
   </si>
   <si>
     <t>Xác định các chức năng chính của phần mềm, công nghệ sử dụng chính  để phát triển phần mềm.</t>
+  </si>
+  <si>
+    <t>Backend: Api user (phân quyền)</t>
+  </si>
+  <si>
+    <t>Móc 2</t>
+  </si>
+  <si>
+    <t>Phần mềm có chức năng thêm, sửa, xóa các danh mục:</t>
+  </si>
+  <si>
+    <t>Danh mục vật tư</t>
+  </si>
+  <si>
+    <t>Danh mục nhóm vật tư</t>
+  </si>
+  <si>
+    <t>Danh mục đơn vị tính</t>
+  </si>
+  <si>
+    <t>Danh mục nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Danh mục lô</t>
+  </si>
+  <si>
+    <t>Danh mục phiếu bán lẻ</t>
+  </si>
+  <si>
+    <t>Danh mục phiếu nhập kho, phiếu kiểm kho</t>
+  </si>
+  <si>
+    <t>Danh mục phiếu điều khiển chuyển</t>
+  </si>
+  <si>
+    <t>Danh mục kho</t>
+  </si>
+  <si>
+    <t>Móc 3</t>
+  </si>
+  <si>
+    <t>Hoàn thiện tính năng quản lý nhập/ xuất kho, quản lý tồn kho.</t>
+  </si>
+  <si>
+    <t>Móc 4</t>
+  </si>
+  <si>
+    <t>Phần mềm có chức năng thống kê doanh thu (theo nhân viên, theo ngày, theo tháng, theo quý, theo năm).</t>
+  </si>
+  <si>
+    <t>Móc 5</t>
+  </si>
+  <si>
+    <t>Thêm các tính năng tiện ích cho phần mềm như: in mã vạch, scan mã vạch bán hàng, in hóa đơn,…</t>
+  </si>
+  <si>
+    <t>Bảng API</t>
   </si>
 </sst>
 </file>
@@ -244,9 +299,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -257,6 +320,14 @@
       <color rgb="FF212121"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -278,8 +349,38 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Segoe UI Historic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI Historic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,7 +399,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -384,55 +515,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="31">
     <dxf>
       <font>
         <b/>
@@ -599,27 +762,6 @@
         <b/>
         <i val="0"/>
         <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9"/>
       </font>
     </dxf>
     <dxf>
@@ -657,13 +799,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27A8D894-E393-4B87-B3E2-28ABE168B418}" name="Table1" displayName="Table1" ref="B3:F17" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27A8D894-E393-4B87-B3E2-28ABE168B418}" name="Table1" displayName="Table1" ref="B3:F17" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B86DE6CB-0C76-4F5D-BD27-5184A77E75D2}" name="Stt" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{5C6E88B1-9334-49D3-BEC9-F1E9642210BA}" name="Tên API" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{57B8767F-0FEF-49E0-B89B-9E2FE7EB2BA9}" name="Url" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{54223990-E65D-4379-8DEA-CB0D0F2F2D2E}" name="Method" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{479553B4-FFD2-435A-9CF4-00514AF86902}" name="Trạng thái" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{B86DE6CB-0C76-4F5D-BD27-5184A77E75D2}" name="Stt" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{5C6E88B1-9334-49D3-BEC9-F1E9642210BA}" name="Tên API" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{57B8767F-0FEF-49E0-B89B-9E2FE7EB2BA9}" name="Url" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{54223990-E65D-4379-8DEA-CB0D0F2F2D2E}" name="Method" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{479553B4-FFD2-435A-9CF4-00514AF86902}" name="Trạng thái" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -965,11 +1107,342 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336116C0-F5CE-463D-B4E0-2F45B77B8649}">
+  <dimension ref="B2:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="8" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B2" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="30"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E4:E17">
+    <cfRule type="expression" dxfId="8" priority="4">
+      <formula>$E4="GET"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>$E4="DELETE"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>$E4="POST"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>$E4="PUT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="8">
+      <formula>$E4="GET"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="9">
+      <formula>$E4="POST"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F17">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$F4="Chưa Hoàn Thành"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$F4="Test Thất Bại"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$F4="Test Thành Công"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E17" xr:uid="{12B88800-249F-4446-BFB3-80C92A3A73F9}">
+      <formula1>"GET,POST,PUT,DELETE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F17" xr:uid="{757DF853-9925-4BD7-9820-847BE5953B5E}">
+      <formula1>"Test Thành Công, Test Thất Bại, Chưa Hoàn Thành"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC67E5AA-8FAB-41D8-8A8D-EE0BF86ABB25}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,15 +1458,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="A1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -1002,10 +1475,10 @@
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -1017,363 +1490,362 @@
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="14">
+      <c r="A5" s="9"/>
+      <c r="B5" s="13">
         <v>1</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="14" t="s">
+      <c r="F5" s="13"/>
+      <c r="G5" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="13">
+        <v>2</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="14" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="14">
-        <v>2</v>
-      </c>
-      <c r="C6" s="15" t="s">
+    <row r="7" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="13">
+        <v>3</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="14" t="s">
+      <c r="F7" s="13"/>
+      <c r="G7" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="13">
+        <v>4</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="14" t="s">
+      <c r="F8" s="13"/>
+      <c r="G8" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="14">
-        <v>3</v>
-      </c>
-      <c r="C7" s="15" t="s">
+    <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="13">
+        <v>5</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="13">
         <v>6</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="14" t="s">
+      <c r="C10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="14">
-        <v>4</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="14" t="s">
+    <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="14">
-        <v>5</v>
-      </c>
-      <c r="C9" s="15" t="s">
+      <c r="C11" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="13">
+        <v>8</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="13">
+        <v>9</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="14" t="s">
+      <c r="F13" s="13"/>
+      <c r="G13" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="14">
-        <v>6</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="14" t="s">
+    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="13">
+        <v>10</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="14">
+    <row r="15" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="13">
+        <v>11</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="14" t="s">
+    </row>
+    <row r="16" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="13">
+        <v>12</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="14">
-        <v>8</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="14" t="s">
+    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="13">
+        <v>13</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="14">
-        <v>9</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="14" t="s">
+    <row r="18" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="13">
+        <v>14</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="14">
-        <v>10</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="14" t="s">
+    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="13">
+        <v>15</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="14">
-        <v>11</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="14" t="s">
+    <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="13">
+        <v>16</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="14">
-        <v>12</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="14">
-        <v>13</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="14">
-        <v>14</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="14">
-        <v>15</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="14">
-        <v>16</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="18">
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
@@ -1455,330 +1927,245 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336116C0-F5CE-463D-B4E0-2F45B77B8649}">
-  <dimension ref="B2:H17"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34FC68D-5BD0-463D-8E0B-31DC500E7520}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A1:A10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A74EBAA-2AD0-4C6B-827F-9FED01D7A869}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11" style="2" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" customWidth="1"/>
-    <col min="4" max="4" width="37.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="8" width="11" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>9</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <v>10</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <v>11</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>12</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <v>13</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <v>14</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>41</v>
-      </c>
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E4:E17">
-    <cfRule type="expression" dxfId="8" priority="4">
-      <formula>$E4="GET"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5">
-      <formula>$E4="DELETE"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
-      <formula>$E4="POST"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>$E4="PUT"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
-      <formula>$E4="GET"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="9">
-      <formula>$E4="POST"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F17">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$F4="Chưa Hoàn Thành"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$F4="Test Thất Bại"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>$F4="Test Thành Công"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E17" xr:uid="{12B88800-249F-4446-BFB3-80C92A3A73F9}">
-      <formula1>"GET,POST,PUT,DELETE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F17" xr:uid="{757DF853-9925-4BD7-9820-847BE5953B5E}">
-      <formula1>"Test Thành Công, Test Thất Bại, Chưa Hoàn Thành"</formula1>
-    </dataValidation>
-  </dataValidations>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FF7B5B-E698-4DF8-AA55-18AAC5DA0F2F}">
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="32.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBDD5F4-5FBD-4F1F-BB43-9AFC045E1668}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Data/Bảng phân công.xlsx
+++ b/Data/Bảng phân công.xlsx
@@ -8,17 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Downloads\DoAn_CNPM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8106CC-D6A5-4B00-9B7C-57FBA3D43DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A5904C-3AE7-4412-992F-669746591364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{E69B2DEE-E1CA-4FD0-8210-BD6F21586AE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{E69B2DEE-E1CA-4FD0-8210-BD6F21586AE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Api" sheetId="2" r:id="rId1"/>
     <sheet name="Móc 1" sheetId="3" r:id="rId2"/>
     <sheet name="Móc 2" sheetId="10" r:id="rId3"/>
-    <sheet name="Móc 3" sheetId="11" r:id="rId4"/>
-    <sheet name="Móc 4" sheetId="12" r:id="rId5"/>
-    <sheet name="Móc 5" sheetId="13" r:id="rId6"/>
+    <sheet name="Móc 3" sheetId="12" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="104">
   <si>
     <t>STT</t>
   </si>
@@ -277,19 +275,82 @@
     <t>Hoàn thiện tính năng quản lý nhập/ xuất kho, quản lý tồn kho.</t>
   </si>
   <si>
-    <t>Móc 4</t>
-  </si>
-  <si>
     <t>Phần mềm có chức năng thống kê doanh thu (theo nhân viên, theo ngày, theo tháng, theo quý, theo năm).</t>
   </si>
   <si>
-    <t>Móc 5</t>
-  </si>
-  <si>
     <t>Thêm các tính năng tiện ích cho phần mềm như: in mã vạch, scan mã vạch bán hàng, in hóa đơn,…</t>
   </si>
   <si>
     <t>Bảng API</t>
+  </si>
+  <si>
+    <t>Giao Việc</t>
+  </si>
+  <si>
+    <t>16 -20/04/2023</t>
+  </si>
+  <si>
+    <t>23 - 26/04/2023</t>
+  </si>
+  <si>
+    <t>14 -16/04/2023</t>
+  </si>
+  <si>
+    <t>Xây dựng giao diện danh mục kho</t>
+  </si>
+  <si>
+    <t>Xây dựng giao diện danh mục vật tư</t>
+  </si>
+  <si>
+    <t>Xây dựng giao diện danh mục nhóm vật tư</t>
+  </si>
+  <si>
+    <t>Xây dựng giao diện danh mục đơn vị tính</t>
+  </si>
+  <si>
+    <t>Xây dựng giao diện danh mục cung cấp</t>
+  </si>
+  <si>
+    <t>Xây dựng giao diện danh mục lô</t>
+  </si>
+  <si>
+    <t>Xây dựng giao diện danh mục phiếu bán lẻ</t>
+  </si>
+  <si>
+    <t>Xây dựng giao diện danh mục phiếu nhập kho, phiếu kiểm kho</t>
+  </si>
+  <si>
+    <t>Xây dựng giao diện danh mục phiếu điều khiển chuyển</t>
+  </si>
+  <si>
+    <t>Api tạo mới 1 bản ghi</t>
+  </si>
+  <si>
+    <t>Api cập nhật mới 1 bản ghi</t>
+  </si>
+  <si>
+    <t>Api xóa bản ghi vào thùng rác</t>
+  </si>
+  <si>
+    <t>Api xóa vĩnh viễn bản ghi trong thùng rác</t>
+  </si>
+  <si>
+    <t>Api khôi phục bản ghi từ thùng rác</t>
+  </si>
+  <si>
+    <t>Api lấy danh sách bản ghi và điều kiện</t>
+  </si>
+  <si>
+    <t>Api lấy danh sách các bản ghi và điều kiện</t>
+  </si>
+  <si>
+    <t>Api import bản ghi từ excel</t>
+  </si>
+  <si>
+    <t>Api upload hình ảnh sản phẩm</t>
+  </si>
+  <si>
+    <t>28 - 02/05/2023</t>
   </si>
 </sst>
 </file>
@@ -308,26 +369,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF212121"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -359,28 +404,43 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Segoe UI Historic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Segoe UI Historic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Segoe UI Historic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Segoe UI Historic"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,18 +478,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -515,178 +563,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
+  <dxfs count="59">
     <dxf>
       <fill>
         <patternFill>
@@ -698,6 +673,34 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -720,13 +723,6 @@
         <b/>
         <i val="0"/>
         <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="0.39994506668294322"/>
       </font>
     </dxf>
     <dxf>
@@ -740,6 +736,13 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -754,6 +757,13 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="8" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -761,7 +771,259 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="8" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="8" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="8" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="8" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
       </font>
     </dxf>
     <dxf>
@@ -799,13 +1061,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27A8D894-E393-4B87-B3E2-28ABE168B418}" name="Table1" displayName="Table1" ref="B3:F17" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27A8D894-E393-4B87-B3E2-28ABE168B418}" name="Table1" displayName="Table1" ref="B3:F17" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B86DE6CB-0C76-4F5D-BD27-5184A77E75D2}" name="Stt" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{5C6E88B1-9334-49D3-BEC9-F1E9642210BA}" name="Tên API" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{57B8767F-0FEF-49E0-B89B-9E2FE7EB2BA9}" name="Url" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{54223990-E65D-4379-8DEA-CB0D0F2F2D2E}" name="Method" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{479553B4-FFD2-435A-9CF4-00514AF86902}" name="Trạng thái" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{B86DE6CB-0C76-4F5D-BD27-5184A77E75D2}" name="Stt" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{5C6E88B1-9334-49D3-BEC9-F1E9642210BA}" name="Tên API" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{57B8767F-0FEF-49E0-B89B-9E2FE7EB2BA9}" name="Url" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{54223990-E65D-4379-8DEA-CB0D0F2F2D2E}" name="Method" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{479553B4-FFD2-435A-9CF4-00514AF86902}" name="Trạng thái" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1125,10 +1387,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="30"/>
+      <c r="B2" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -1391,33 +1653,33 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E17">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="51" priority="4">
       <formula>$E4="GET"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="50" priority="5">
       <formula>$E4="DELETE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="49" priority="6">
       <formula>$E4="POST"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="48" priority="7">
       <formula>$E4="PUT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="47" priority="8">
       <formula>$E4="GET"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="9">
+    <cfRule type="expression" dxfId="46" priority="9">
       <formula>$E4="POST"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F17">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="45" priority="1">
       <formula>$F4="Chưa Hoàn Thành"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="44" priority="2">
       <formula>$F4="Test Thất Bại"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="43" priority="3">
       <formula>$F4="Test Thành Công"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1441,8 +1703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC67E5AA-8FAB-41D8-8A8D-EE0BF86ABB25}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,15 +1720,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -1475,8 +1737,8 @@
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="7" t="s">
         <v>62</v>
       </c>
@@ -1490,359 +1752,368 @@
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="13">
+      <c r="A5" s="8"/>
+      <c r="B5" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="16" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="13">
+      <c r="A6" s="8"/>
+      <c r="B6" s="11">
         <v>2</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="16" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="13">
+      <c r="A7" s="8"/>
+      <c r="B7" s="11">
         <v>3</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="16" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="13">
+      <c r="A8" s="8"/>
+      <c r="B8" s="11">
         <v>4</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="13" t="s">
+      <c r="D8" s="19"/>
+      <c r="E8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="16" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="13">
+      <c r="A9" s="8"/>
+      <c r="B9" s="11">
         <v>5</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="16" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="13">
+      <c r="A10" s="8"/>
+      <c r="B10" s="11">
         <v>6</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="13" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="16" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="13">
+      <c r="A11" s="8"/>
+      <c r="B11" s="11">
         <v>7</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="19"/>
+      <c r="E11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="16" t="s">
+      <c r="F11" s="11"/>
+      <c r="G11" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="13">
+      <c r="A12" s="8"/>
+      <c r="B12" s="11">
         <v>8</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="19"/>
+      <c r="E12" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="16" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="13">
+      <c r="A13" s="8"/>
+      <c r="B13" s="11">
         <v>9</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="13" t="s">
+      <c r="D13" s="19"/>
+      <c r="E13" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="16" t="s">
+      <c r="F13" s="11"/>
+      <c r="G13" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="13">
+      <c r="A14" s="8"/>
+      <c r="B14" s="11">
         <v>10</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="13" t="s">
+      <c r="D14" s="19"/>
+      <c r="E14" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="16" t="s">
+      <c r="F14" s="11"/>
+      <c r="G14" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="13">
+      <c r="A15" s="8"/>
+      <c r="B15" s="11">
         <v>11</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="13" t="s">
+      <c r="D15" s="19"/>
+      <c r="E15" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="16" t="s">
+      <c r="F15" s="11"/>
+      <c r="G15" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="13">
+      <c r="A16" s="8"/>
+      <c r="B16" s="11">
         <v>12</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="13" t="s">
+      <c r="D16" s="19"/>
+      <c r="E16" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="16" t="s">
+      <c r="F16" s="11"/>
+      <c r="G16" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="13">
+      <c r="A17" s="8"/>
+      <c r="B17" s="11">
         <v>13</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="13" t="s">
+      <c r="D17" s="19"/>
+      <c r="E17" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="16" t="s">
+      <c r="F17" s="11"/>
+      <c r="G17" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="13">
+      <c r="A18" s="8"/>
+      <c r="B18" s="11">
         <v>14</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="13" t="s">
+      <c r="D18" s="19"/>
+      <c r="E18" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="16" t="s">
+      <c r="F18" s="11"/>
+      <c r="G18" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="13">
+      <c r="A19" s="8"/>
+      <c r="B19" s="11">
         <v>15</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="13" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="16" t="s">
+      <c r="F19" s="11"/>
+      <c r="G19" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="13">
+      <c r="A20" s="8"/>
+      <c r="B20" s="11">
         <v>16</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="17" t="s">
+      <c r="D20" s="19"/>
+      <c r="E20" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="16" t="s">
+      <c r="F20" s="11"/>
+      <c r="G20" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="11" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
@@ -1852,68 +2123,56 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A1:B2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B19:D20 F19:F20 E20 B5:H5 B6:F18 G6:H20">
-    <cfRule type="expression" dxfId="23" priority="4">
+  <conditionalFormatting sqref="B5:H5 B6:F18 G6:H20 B19:D20 F19:F20 E20">
+    <cfRule type="expression" dxfId="42" priority="5">
+      <formula>$J5="Đang Thực Hiện"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="6">
+      <formula>$J5="Đang Thực Hiện"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="7">
+      <formula>$J5="Chưa Hoàn Thành"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="8">
       <formula>$J5="Hoàn Thành"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="5">
-      <formula>$J5="Đang Thực Hiện"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="7">
-      <formula>$J5="Chưa Hoàn Thành"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="8">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:H5 G6:H20 B6:F18 B19:D20 F19:F20 E20">
+    <cfRule type="expression" dxfId="38" priority="4">
       <formula>$J5="Hoàn Thành"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="9">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:H20">
+    <cfRule type="expression" dxfId="37" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:D20 F19:F20 E20 B5:H5 B6:F18 G6:H20">
-    <cfRule type="expression" dxfId="18" priority="6">
-      <formula>$J5="Đang Thực Hiện"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="36" priority="18">
       <formula>$J20="Hoàn Thành"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="19">
+    <cfRule type="expression" dxfId="35" priority="19">
       <formula>$J20="Đang Thực Hiện"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="20">
+    <cfRule type="expression" dxfId="34" priority="20">
       <formula>$J20="Chưa Hoàn Thành"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="21">
+    <cfRule type="expression" dxfId="33" priority="21">
       <formula>$J20="Hoàn Thành"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="22">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="expression" dxfId="12" priority="24">
+    <cfRule type="expression" dxfId="32" priority="24">
       <formula>$J20="Đang Thực Hiện"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H20">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="31" priority="1">
       <formula>$H5="Chưa Hoàn Thành"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="30" priority="2">
       <formula>$H5="Đang Thực Hiện"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="29" priority="3">
       <formula>$H5="Hoàn Thành"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1929,188 +2188,640 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34FC68D-5BD0-463D-8E0B-31DC500E7520}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="D17" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="4.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="21" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="22" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="22" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="22" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="22" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="22" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="22" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="22" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="22" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
+      <c r="B11" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="8"/>
+      <c r="D14" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="8"/>
+      <c r="D15" s="33">
+        <v>1</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="38"/>
+      <c r="G15" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="8"/>
+      <c r="D16" s="33">
+        <v>2</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="38"/>
+      <c r="G16" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="33"/>
+      <c r="I16" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="8"/>
+      <c r="D17" s="33">
+        <v>3</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="38"/>
+      <c r="G17" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="33"/>
+      <c r="I17" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="8"/>
+      <c r="D18" s="33">
+        <v>4</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="33"/>
+      <c r="I18" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="8"/>
+      <c r="D19" s="33">
+        <v>5</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="38"/>
+      <c r="G19" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="33"/>
+      <c r="I19" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="8"/>
+      <c r="D20" s="33">
+        <v>6</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="38"/>
+      <c r="G20" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="33"/>
+      <c r="I20" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="8"/>
+      <c r="D21" s="33">
+        <v>7</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="38"/>
+      <c r="G21" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="33"/>
+      <c r="I21" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="8"/>
+      <c r="D22" s="33">
+        <v>8</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="38"/>
+      <c r="G22" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="33"/>
+      <c r="I22" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="J22" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="8"/>
+      <c r="D23" s="33">
+        <v>9</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="38"/>
+      <c r="G23" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="33"/>
+      <c r="I23" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="8"/>
+      <c r="D24" s="33">
+        <v>10</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="38"/>
+      <c r="G24" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="33"/>
+      <c r="I24" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="8"/>
+      <c r="D25" s="33">
+        <v>11</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="38"/>
+      <c r="G25" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="J25" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="8"/>
+      <c r="D26" s="33">
+        <v>12</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="38"/>
+      <c r="G26" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="33"/>
+      <c r="I26" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="J26" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="8"/>
+      <c r="D27" s="33">
+        <v>13</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="38"/>
+      <c r="G27" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="33"/>
+      <c r="I27" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="J27" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="8"/>
+      <c r="D28" s="33">
+        <v>14</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="38"/>
+      <c r="G28" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="33"/>
+      <c r="I28" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="J28" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="8"/>
+      <c r="D29" s="33">
+        <v>15</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="38"/>
+      <c r="G29" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="33"/>
+      <c r="I29" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="J29" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="8"/>
+      <c r="D30" s="33">
+        <v>16</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="38"/>
+      <c r="G30" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30" s="33"/>
+      <c r="I30" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="J30" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="33">
+        <v>17</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="38"/>
+      <c r="G31" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="H31" s="33"/>
+      <c r="I31" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="J31" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="33">
+        <v>18</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="38"/>
+      <c r="G32" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" s="33"/>
+      <c r="I32" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="J32" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="A1:A10"/>
+  <mergeCells count="20">
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="A1:A11"/>
   </mergeCells>
+  <conditionalFormatting sqref="H29:H30 G30 G15:J28 G31:H32 D15:E32 I29:J32">
+    <cfRule type="expression" dxfId="14" priority="6">
+      <formula>$J15="Đang Thực Hiện"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="7">
+      <formula>$J15="Đang Thực Hiện"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="8">
+      <formula>$J15="Chưa Hoàn Thành"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="9">
+      <formula>$J15="Hoàn Thành"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29:H30 G30 G15:J28 G31:H32 D15:E32 I29:J32">
+    <cfRule type="expression" dxfId="10" priority="5">
+      <formula>$J15="Hoàn Thành"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:J28 D15:E30 D31:D32 G29:H30 J29:J30 I29:I32">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="expression" dxfId="8" priority="11">
+      <formula>$J30="Hoàn Thành"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="12">
+      <formula>$J30="Đang Thực Hiện"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="13">
+      <formula>$J30="Chưa Hoàn Thành"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="14">
+      <formula>$J30="Hoàn Thành"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="15">
+      <formula>$J30="Đang Thực Hiện"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:J32">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$H15="Chưa Hoàn Thành"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$H15="Đang Thực Hiện"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>$H15="Hoàn Thành"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31:H32 D31:E32 J31:J32">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J15:J32" xr:uid="{BF83D97E-0C46-4B49-AD93-004BC561CD32}">
+      <formula1>"Giao Việc,Hoàn Thành, Chưa Hoàn Thành, Đang Thực Hiện"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A74EBAA-2AD0-4C6B-827F-9FED01D7A869}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FF7B5B-E698-4DF8-AA55-18AAC5DA0F2F}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="34.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FF7B5B-E698-4DF8-AA55-18AAC5DA0F2F}">
-  <dimension ref="A1:L1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="12" max="12" width="32.85546875" customWidth="1"/>
+    <col min="11" max="11" width="41.5703125" customWidth="1"/>
+    <col min="12" max="12" width="0.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>78</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>79</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -2123,68 +2834,33 @@
       <c r="K1" s="26"/>
       <c r="L1" s="26"/>
     </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B1:L1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBDD5F4-5FBD-4F1F-BB43-9AFC045E1668}">
-  <dimension ref="A1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="11" max="11" width="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006012939AEB6C7441B93DD0678AEC47A1" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d9cd836056523acb4db17a702a1b7bc1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f954ad4b6ebd46506388e2a5c869540">
     <xsd:element name="properties">
@@ -2298,10 +2974,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B520BE18-ED60-4FF6-B0FA-E5214074705A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B5A57AA-6876-431A-A529-700D213A014C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2322,17 +3021,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B5A57AA-6876-431A-A529-700D213A014C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B520BE18-ED60-4FF6-B0FA-E5214074705A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Data/Bảng phân công.xlsx
+++ b/Data/Bảng phân công.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Downloads\DoAn_CNPM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A5904C-3AE7-4412-992F-669746591364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF93D42-59FA-42C5-9B94-5FD467C3D959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{E69B2DEE-E1CA-4FD0-8210-BD6F21586AE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{E69B2DEE-E1CA-4FD0-8210-BD6F21586AE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Api" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="114">
   <si>
     <t>STT</t>
   </si>
@@ -351,6 +351,36 @@
   </si>
   <si>
     <t>28 - 02/05/2023</t>
+  </si>
+  <si>
+    <t>Thiết kế kiến trúc hệ thống và kiến trúc phần mềm.</t>
+  </si>
+  <si>
+    <t>Hiển thị tồn kho</t>
+  </si>
+  <si>
+    <t>03 - 09/05/2023</t>
+  </si>
+  <si>
+    <t>Thiết kế kiến trúc dự án</t>
+  </si>
+  <si>
+    <t>Thiết kế kiến trúc phần mềm</t>
+  </si>
+  <si>
+    <t>16 -24/05/2023</t>
+  </si>
+  <si>
+    <t>Chức năng thống kê doanh thu</t>
+  </si>
+  <si>
+    <t>Tính năng in mã vạch</t>
+  </si>
+  <si>
+    <t>Tính năng scan mã vạch bán hàng</t>
+  </si>
+  <si>
+    <t>Tính năng in hóa đơn</t>
   </si>
 </sst>
 </file>
@@ -555,7 +585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -599,40 +629,9 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -648,6 +647,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -657,11 +671,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="70">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="8" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -766,6 +830,48 @@
         <i val="0"/>
         <color theme="8" tint="-0.24994659260841701"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="8" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1061,13 +1167,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27A8D894-E393-4B87-B3E2-28ABE168B418}" name="Table1" displayName="Table1" ref="B3:F17" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27A8D894-E393-4B87-B3E2-28ABE168B418}" name="Table1" displayName="Table1" ref="B3:F17" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B86DE6CB-0C76-4F5D-BD27-5184A77E75D2}" name="Stt" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{5C6E88B1-9334-49D3-BEC9-F1E9642210BA}" name="Tên API" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{57B8767F-0FEF-49E0-B89B-9E2FE7EB2BA9}" name="Url" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{54223990-E65D-4379-8DEA-CB0D0F2F2D2E}" name="Method" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{479553B4-FFD2-435A-9CF4-00514AF86902}" name="Trạng thái" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{B86DE6CB-0C76-4F5D-BD27-5184A77E75D2}" name="Stt" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{5C6E88B1-9334-49D3-BEC9-F1E9642210BA}" name="Tên API" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{57B8767F-0FEF-49E0-B89B-9E2FE7EB2BA9}" name="Url" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{54223990-E65D-4379-8DEA-CB0D0F2F2D2E}" name="Method" dataDxfId="64"/>
+    <tableColumn id="5" xr3:uid="{479553B4-FFD2-435A-9CF4-00514AF86902}" name="Trạng thái" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1387,10 +1493,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -1653,33 +1759,33 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E17">
-    <cfRule type="expression" dxfId="51" priority="4">
+    <cfRule type="expression" dxfId="62" priority="4">
       <formula>$E4="GET"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="5">
+    <cfRule type="expression" dxfId="61" priority="5">
       <formula>$E4="DELETE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="6">
+    <cfRule type="expression" dxfId="60" priority="6">
       <formula>$E4="POST"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="7">
+    <cfRule type="expression" dxfId="59" priority="7">
       <formula>$E4="PUT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="8">
+    <cfRule type="expression" dxfId="58" priority="8">
       <formula>$E4="GET"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="9">
+    <cfRule type="expression" dxfId="57" priority="9">
       <formula>$E4="POST"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F17">
-    <cfRule type="expression" dxfId="45" priority="1">
+    <cfRule type="expression" dxfId="56" priority="1">
       <formula>$F4="Chưa Hoàn Thành"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="2">
+    <cfRule type="expression" dxfId="55" priority="2">
       <formula>$F4="Test Thất Bại"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="3">
+    <cfRule type="expression" dxfId="54" priority="3">
       <formula>$F4="Test Thành Công"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1703,7 +1809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC67E5AA-8FAB-41D8-8A8D-EE0BF86ABB25}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -1720,10 +1826,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="14" t="s">
         <v>63</v>
       </c>
@@ -1737,8 +1843,8 @@
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="7" t="s">
         <v>62</v>
       </c>
@@ -1766,10 +1872,10 @@
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="20"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="9" t="s">
         <v>5</v>
       </c>
@@ -1788,10 +1894,10 @@
       <c r="B5" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="11" t="s">
         <v>44</v>
       </c>
@@ -1808,10 +1914,10 @@
       <c r="B6" s="11">
         <v>2</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="11" t="s">
         <v>46</v>
       </c>
@@ -1828,10 +1934,10 @@
       <c r="B7" s="11">
         <v>3</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="11" t="s">
         <v>46</v>
       </c>
@@ -1848,10 +1954,10 @@
       <c r="B8" s="11">
         <v>4</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="11" t="s">
         <v>47</v>
       </c>
@@ -1868,10 +1974,10 @@
       <c r="B9" s="11">
         <v>5</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="11" t="s">
         <v>49</v>
       </c>
@@ -1888,10 +1994,10 @@
       <c r="B10" s="11">
         <v>6</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="11" t="s">
         <v>44</v>
       </c>
@@ -1908,10 +2014,10 @@
       <c r="B11" s="11">
         <v>7</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="11" t="s">
         <v>44</v>
       </c>
@@ -1928,10 +2034,10 @@
       <c r="B12" s="11">
         <v>8</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="11" t="s">
         <v>46</v>
       </c>
@@ -1948,10 +2054,10 @@
       <c r="B13" s="11">
         <v>9</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="19"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="11" t="s">
         <v>49</v>
       </c>
@@ -1968,10 +2074,10 @@
       <c r="B14" s="11">
         <v>10</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="11" t="s">
         <v>49</v>
       </c>
@@ -1988,10 +2094,10 @@
       <c r="B15" s="11">
         <v>11</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="11" t="s">
         <v>49</v>
       </c>
@@ -2008,10 +2114,10 @@
       <c r="B16" s="11">
         <v>12</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="11" t="s">
         <v>49</v>
       </c>
@@ -2028,10 +2134,10 @@
       <c r="B17" s="11">
         <v>13</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="11" t="s">
         <v>49</v>
       </c>
@@ -2048,10 +2154,10 @@
       <c r="B18" s="11">
         <v>14</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="19"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="11" t="s">
         <v>49</v>
       </c>
@@ -2068,10 +2174,10 @@
       <c r="B19" s="11">
         <v>15</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="11" t="s">
         <v>49</v>
       </c>
@@ -2088,10 +2194,10 @@
       <c r="B20" s="11">
         <v>16</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="19"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="13" t="s">
         <v>49</v>
       </c>
@@ -2105,6 +2211,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -2114,65 +2229,56 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:H5 B6:F18 G6:H20 B19:D20 F19:F20 E20">
-    <cfRule type="expression" dxfId="42" priority="5">
+    <cfRule type="expression" dxfId="53" priority="5">
       <formula>$J5="Đang Thực Hiện"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="6">
+    <cfRule type="expression" dxfId="52" priority="6">
       <formula>$J5="Đang Thực Hiện"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="7">
+    <cfRule type="expression" dxfId="51" priority="7">
       <formula>$J5="Chưa Hoàn Thành"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="8">
+    <cfRule type="expression" dxfId="50" priority="8">
       <formula>$J5="Hoàn Thành"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:H5 G6:H20 B6:F18 B19:D20 F19:F20 E20">
-    <cfRule type="expression" dxfId="38" priority="4">
+    <cfRule type="expression" dxfId="49" priority="4">
       <formula>$J5="Hoàn Thành"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:H20">
-    <cfRule type="expression" dxfId="37" priority="9">
+    <cfRule type="expression" dxfId="48" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="expression" dxfId="36" priority="18">
+    <cfRule type="expression" dxfId="47" priority="18">
       <formula>$J20="Hoàn Thành"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="19">
+    <cfRule type="expression" dxfId="46" priority="19">
       <formula>$J20="Đang Thực Hiện"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="20">
+    <cfRule type="expression" dxfId="45" priority="20">
       <formula>$J20="Chưa Hoàn Thành"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="21">
+    <cfRule type="expression" dxfId="44" priority="21">
       <formula>$J20="Hoàn Thành"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="24">
+    <cfRule type="expression" dxfId="43" priority="24">
       <formula>$J20="Đang Thực Hiện"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H20">
-    <cfRule type="expression" dxfId="31" priority="1">
+    <cfRule type="expression" dxfId="42" priority="1">
       <formula>$H5="Chưa Hoàn Thành"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="2">
+    <cfRule type="expression" dxfId="41" priority="2">
       <formula>$H5="Đang Thực Hiện"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="3">
+    <cfRule type="expression" dxfId="40" priority="3">
       <formula>$H5="Hoàn Thành"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2190,8 +2296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34FC68D-5BD0-463D-8E0B-31DC500E7520}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D17" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2207,20 +2313,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
+      <c r="A2" s="33"/>
       <c r="B2" s="16" t="s">
         <v>75</v>
       </c>
@@ -2231,7 +2337,7 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="15" t="s">
         <v>67</v>
       </c>
@@ -2242,7 +2348,7 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="15" t="s">
         <v>68</v>
       </c>
@@ -2253,7 +2359,7 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="15" t="s">
         <v>69</v>
       </c>
@@ -2264,7 +2370,7 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="15" t="s">
         <v>70</v>
       </c>
@@ -2275,7 +2381,7 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="15" t="s">
         <v>71</v>
       </c>
@@ -2286,7 +2392,7 @@
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="15" t="s">
         <v>72</v>
       </c>
@@ -2297,7 +2403,7 @@
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="15" t="s">
         <v>73</v>
       </c>
@@ -2308,7 +2414,7 @@
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="15" t="s">
         <v>74</v>
       </c>
@@ -2319,482 +2425,517 @@
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="30" t="s">
+      <c r="A11" s="33"/>
+      <c r="B11" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="31" t="s">
+      <c r="F14" s="30"/>
+      <c r="G14" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="32" t="s">
+      <c r="I14" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="31" t="s">
+      <c r="J14" s="20" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
-      <c r="D15" s="33">
+      <c r="D15" s="22">
         <v>1</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="33" t="s">
+      <c r="F15" s="32"/>
+      <c r="G15" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="34" t="s">
+      <c r="H15" s="22"/>
+      <c r="I15" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="J15" s="33" t="s">
-        <v>81</v>
+      <c r="J15" s="22" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="8"/>
-      <c r="D16" s="33">
+      <c r="D16" s="22">
         <v>2</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="33" t="s">
+      <c r="F16" s="32"/>
+      <c r="G16" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="33"/>
-      <c r="I16" s="34" t="s">
+      <c r="H16" s="22"/>
+      <c r="I16" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="J16" s="33" t="s">
-        <v>81</v>
+      <c r="J16" s="22" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="8"/>
-      <c r="D17" s="33">
+      <c r="D17" s="22">
         <v>3</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="33" t="s">
+      <c r="F17" s="32"/>
+      <c r="G17" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="33"/>
-      <c r="I17" s="34" t="s">
+      <c r="H17" s="22"/>
+      <c r="I17" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="J17" s="33" t="s">
-        <v>81</v>
+      <c r="J17" s="22" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="8"/>
-      <c r="D18" s="33">
+      <c r="D18" s="22">
         <v>4</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="33" t="s">
+      <c r="F18" s="32"/>
+      <c r="G18" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="34" t="s">
+      <c r="H18" s="22"/>
+      <c r="I18" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="J18" s="33" t="s">
-        <v>81</v>
+      <c r="J18" s="22" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="8"/>
-      <c r="D19" s="33">
+      <c r="D19" s="22">
         <v>5</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="38"/>
-      <c r="G19" s="33" t="s">
+      <c r="F19" s="32"/>
+      <c r="G19" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="34" t="s">
+      <c r="H19" s="22"/>
+      <c r="I19" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="J19" s="33" t="s">
-        <v>81</v>
+      <c r="J19" s="22" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="8"/>
-      <c r="D20" s="33">
+      <c r="D20" s="22">
         <v>6</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="38"/>
-      <c r="G20" s="33" t="s">
+      <c r="F20" s="32"/>
+      <c r="G20" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="34" t="s">
+      <c r="H20" s="22"/>
+      <c r="I20" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="J20" s="33" t="s">
-        <v>81</v>
+      <c r="J20" s="22" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="8"/>
-      <c r="D21" s="33">
-        <v>7</v>
-      </c>
-      <c r="E21" s="37" t="s">
+      <c r="D21" s="22">
+        <v>7</v>
+      </c>
+      <c r="E21" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="38"/>
-      <c r="G21" s="33" t="s">
+      <c r="F21" s="32"/>
+      <c r="G21" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="34" t="s">
+      <c r="H21" s="22"/>
+      <c r="I21" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="J21" s="33" t="s">
-        <v>81</v>
+      <c r="J21" s="22" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="8"/>
-      <c r="D22" s="33">
+      <c r="D22" s="22">
         <v>8</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="33" t="s">
+      <c r="F22" s="32"/>
+      <c r="G22" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="34" t="s">
+      <c r="H22" s="22"/>
+      <c r="I22" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="J22" s="33" t="s">
-        <v>81</v>
+      <c r="J22" s="22" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="8"/>
-      <c r="D23" s="33">
+      <c r="D23" s="22">
         <v>9</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="33" t="s">
+      <c r="F23" s="32"/>
+      <c r="G23" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="33"/>
-      <c r="I23" s="34" t="s">
+      <c r="H23" s="22"/>
+      <c r="I23" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="J23" s="33" t="s">
+      <c r="J23" s="22" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="24" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="8"/>
-      <c r="D24" s="33">
+      <c r="D24" s="22">
         <v>10</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="E24" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="38"/>
-      <c r="G24" s="33" t="s">
+      <c r="F24" s="32"/>
+      <c r="G24" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="33"/>
-      <c r="I24" s="34" t="s">
+      <c r="H24" s="22"/>
+      <c r="I24" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="J24" s="33" t="s">
-        <v>81</v>
+      <c r="J24" s="22" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="8"/>
-      <c r="D25" s="33">
+      <c r="D25" s="22">
         <v>11</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="F25" s="38"/>
-      <c r="G25" s="33" t="s">
+      <c r="F25" s="32"/>
+      <c r="G25" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="34" t="s">
+      <c r="H25" s="22"/>
+      <c r="I25" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="J25" s="33" t="s">
-        <v>81</v>
+      <c r="J25" s="22" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="8"/>
-      <c r="D26" s="33">
+      <c r="D26" s="22">
         <v>12</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="38"/>
-      <c r="G26" s="33" t="s">
+      <c r="F26" s="32"/>
+      <c r="G26" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H26" s="33"/>
-      <c r="I26" s="34" t="s">
+      <c r="H26" s="22"/>
+      <c r="I26" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="J26" s="33" t="s">
-        <v>81</v>
+      <c r="J26" s="22" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="8"/>
-      <c r="D27" s="33">
+      <c r="D27" s="22">
         <v>13</v>
       </c>
-      <c r="E27" s="37" t="s">
+      <c r="E27" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="38"/>
-      <c r="G27" s="33" t="s">
+      <c r="F27" s="32"/>
+      <c r="G27" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H27" s="33"/>
-      <c r="I27" s="34" t="s">
+      <c r="H27" s="22"/>
+      <c r="I27" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="J27" s="33" t="s">
-        <v>81</v>
+      <c r="J27" s="22" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="8"/>
-      <c r="D28" s="33">
+      <c r="D28" s="22">
         <v>14</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="E28" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="38"/>
-      <c r="G28" s="33" t="s">
+      <c r="F28" s="32"/>
+      <c r="G28" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="33"/>
-      <c r="I28" s="34" t="s">
+      <c r="H28" s="22"/>
+      <c r="I28" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="J28" s="33" t="s">
-        <v>81</v>
+      <c r="J28" s="22" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="8"/>
-      <c r="D29" s="33">
+      <c r="D29" s="22">
         <v>15</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="E29" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="F29" s="38"/>
-      <c r="G29" s="33" t="s">
+      <c r="F29" s="32"/>
+      <c r="G29" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="34" t="s">
+      <c r="H29" s="22"/>
+      <c r="I29" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="J29" s="33" t="s">
-        <v>81</v>
+      <c r="J29" s="22" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="8"/>
-      <c r="D30" s="33">
+      <c r="D30" s="22">
         <v>16</v>
       </c>
-      <c r="E30" s="37" t="s">
+      <c r="E30" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="F30" s="38"/>
-      <c r="G30" s="35" t="s">
+      <c r="F30" s="32"/>
+      <c r="G30" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H30" s="33"/>
-      <c r="I30" s="34" t="s">
+      <c r="H30" s="22"/>
+      <c r="I30" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="J30" s="33" t="s">
-        <v>81</v>
+      <c r="J30" s="22" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="3:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="33">
+      <c r="D31" s="22">
         <v>17</v>
       </c>
-      <c r="E31" s="37" t="s">
+      <c r="E31" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="F31" s="38"/>
-      <c r="G31" s="35" t="s">
+      <c r="F31" s="32"/>
+      <c r="G31" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H31" s="33"/>
-      <c r="I31" s="34" t="s">
+      <c r="H31" s="22"/>
+      <c r="I31" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="J31" s="33" t="s">
-        <v>81</v>
+      <c r="J31" s="22" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="3:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="33">
+      <c r="D32" s="22">
         <v>18</v>
       </c>
-      <c r="E32" s="37" t="s">
+      <c r="E32" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="F32" s="38"/>
-      <c r="G32" s="35" t="s">
+      <c r="F32" s="32"/>
+      <c r="G32" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H32" s="33"/>
-      <c r="I32" s="34" t="s">
+      <c r="H32" s="22"/>
+      <c r="I32" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="J32" s="33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
+      <c r="J32" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="22">
+        <v>19</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" s="32"/>
+      <c r="G33" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="22"/>
+      <c r="I33" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="J33" s="22" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="A1:A11"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <conditionalFormatting sqref="H29:H30 G30 G15:J28 G31:H32 D15:E32 I29:J32">
-    <cfRule type="expression" dxfId="14" priority="6">
+  <conditionalFormatting sqref="H29:H30 G30 G15:J28 G31:H32 D15:E32 I29:J32 D33">
+    <cfRule type="expression" dxfId="39" priority="11">
       <formula>$J15="Đang Thực Hiện"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="38" priority="12">
       <formula>$J15="Đang Thực Hiện"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="37" priority="13">
       <formula>$J15="Chưa Hoàn Thành"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" dxfId="36" priority="14">
       <formula>$J15="Hoàn Thành"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29:H30 G30 G15:J28 G31:H32 D15:E32 I29:J32">
-    <cfRule type="expression" dxfId="10" priority="5">
+  <conditionalFormatting sqref="H29:H30 G30 G15:J28 G31:H32 D15:E32 I29:J32 D33">
+    <cfRule type="expression" dxfId="35" priority="10">
       <formula>$J15="Hoàn Thành"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15:J28 D15:E30 D31:D32 G29:H30 J29:J30 I29:I32">
-    <cfRule type="expression" dxfId="9" priority="10">
+  <conditionalFormatting sqref="G15:J28 D15:E30 G29:H30 J29:J30 I29:I33 D31:D33">
+    <cfRule type="expression" dxfId="34" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="33" priority="16">
       <formula>$J30="Hoàn Thành"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="12">
+    <cfRule type="expression" dxfId="32" priority="17">
       <formula>$J30="Đang Thực Hiện"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="13">
+    <cfRule type="expression" dxfId="31" priority="18">
       <formula>$J30="Chưa Hoàn Thành"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="14">
+    <cfRule type="expression" dxfId="30" priority="19">
       <formula>$J30="Hoàn Thành"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="15">
+    <cfRule type="expression" dxfId="29" priority="20">
       <formula>$J30="Đang Thực Hiện"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J15:J32">
-    <cfRule type="expression" dxfId="3" priority="2">
+  <conditionalFormatting sqref="J15:J33">
+    <cfRule type="expression" dxfId="28" priority="7">
       <formula>$H15="Chưa Hoàn Thành"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="27" priority="8">
       <formula>$H15="Đang Thực Hiện"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="26" priority="9">
       <formula>$H15="Hoàn Thành"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31:H32 D31:E32 J31:J32">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="G31:H33 J31:J33 D31:E33">
+    <cfRule type="expression" dxfId="25" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:E33 G33:J33">
+    <cfRule type="expression" dxfId="24" priority="2">
+      <formula>$J33="Đang Thực Hiện"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="3">
+      <formula>$J33="Đang Thực Hiện"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="4">
+      <formula>$J33="Chưa Hoàn Thành"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="5">
+      <formula>$J33="Hoàn Thành"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:E33 G33:J33">
+    <cfRule type="expression" dxfId="20" priority="1">
+      <formula>$J33="Hoàn Thành"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J15:J32" xr:uid="{BF83D97E-0C46-4B49-AD93-004BC561CD32}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J15:J33" xr:uid="{BF83D97E-0C46-4B49-AD93-004BC561CD32}">
       <formula1>"Giao Việc,Hoàn Thành, Chưa Hoàn Thành, Đang Thực Hiện"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2804,63 +2945,471 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FF7B5B-E698-4DF8-AA55-18AAC5DA0F2F}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
     <col min="11" max="11" width="41.5703125" customWidth="1"/>
     <col min="12" max="12" width="0.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="27" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="28"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="17"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="37"/>
+      <c r="B3" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="8"/>
+      <c r="D6" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="30"/>
+      <c r="G6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="8"/>
+      <c r="D7" s="22">
+        <v>1</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="8"/>
+      <c r="D8" s="22">
+        <v>2</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="8"/>
+      <c r="D9" s="22">
+        <v>3</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="8"/>
+      <c r="D10" s="22">
+        <v>4</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="8"/>
+      <c r="D11" s="22">
+        <v>5</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="8"/>
+      <c r="D12" s="22">
+        <v>6</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="8"/>
+      <c r="D13" s="22">
+        <v>7</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="8"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="22"/>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="8"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="22"/>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="8"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="22"/>
+    </row>
+    <row r="17" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="8"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="8"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="22"/>
+    </row>
+    <row r="19" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="8"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="22"/>
+    </row>
+    <row r="20" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="8"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="8"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="22"/>
+    </row>
+    <row r="22" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="8"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="22"/>
+    </row>
+    <row r="23" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="22"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="22"/>
+    </row>
+    <row r="24" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="22"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="22"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="24">
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="B2:K2"/>
-    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="A1:A3"/>
   </mergeCells>
+  <conditionalFormatting sqref="H21:H22 G22 G23:H24 D7:E24 I21:J24 D25 G7:J20">
+    <cfRule type="expression" dxfId="19" priority="11">
+      <formula>$J7="Đang Thực Hiện"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="12">
+      <formula>$J7="Đang Thực Hiện"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="13">
+      <formula>$J7="Chưa Hoàn Thành"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="14">
+      <formula>$J7="Hoàn Thành"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21:H22 G22 G23:H24 D7:E24 I21:J24 D25 G7:J20">
+    <cfRule type="expression" dxfId="15" priority="10">
+      <formula>$J7="Hoàn Thành"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:E22 G21:H22 J21:J22 I21:I25 D23:D25 G7:J20">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="expression" dxfId="13" priority="16">
+      <formula>$J22="Hoàn Thành"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="17">
+      <formula>$J22="Đang Thực Hiện"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="18">
+      <formula>$J22="Chưa Hoàn Thành"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="19">
+      <formula>$J22="Hoàn Thành"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="20">
+      <formula>$J22="Đang Thực Hiện"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7:J25">
+    <cfRule type="expression" dxfId="8" priority="7">
+      <formula>$H7="Chưa Hoàn Thành"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$H7="Đang Thực Hiện"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>$H7="Hoàn Thành"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:H25 J23:J25 D23:E25">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:E25 G25:J25">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>$J25="Đang Thực Hiện"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$J25="Đang Thực Hiện"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$J25="Chưa Hoàn Thành"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="5">
+      <formula>$J25="Hoàn Thành"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:E25 G25:J25">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$J25="Hoàn Thành"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J25" xr:uid="{893EF3E5-C82C-4D18-944D-89210B3CBB8A}">
+      <formula1>"Giao Việc,Hoàn Thành, Chưa Hoàn Thành, Đang Thực Hiện"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006012939AEB6C7441B93DD0678AEC47A1" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d9cd836056523acb4db17a702a1b7bc1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f954ad4b6ebd46506388e2a5c869540">
     <xsd:element name="properties">
@@ -2974,12 +3523,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2990,6 +3533,21 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D590136-27C3-4A17-801C-DA4E11D5F8CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B5A57AA-6876-431A-A529-700D213A014C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3005,21 +3563,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D590136-27C3-4A17-801C-DA4E11D5F8CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B520BE18-ED60-4FF6-B0FA-E5214074705A}">
   <ds:schemaRefs>
